--- a/data/trans_orig/P33_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9697E9AB-C35D-4165-B1A9-71F9A826D9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{181A8D34-4794-49FC-8700-3E6FBB575B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1321D346-70C0-4958-ABCC-F3FB92EA13E8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EEB25BE4-CF7A-48C3-9434-F2996035AA8B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
-    <t>Sueño recomendado en 2023 (Tasa respuesta: 97,37%)</t>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>90,22%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>85,62%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>9,78%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>14,38%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>80,97%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>78,98%</t>
   </si>
   <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>21,02%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>77,37%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>73,98%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>71,56%</t>
   </si>
   <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>30,07%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>70,55%</t>
   </si>
   <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>61,21%</t>
   </si>
   <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>38,79%</t>
   </si>
   <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
   </si>
   <si>
     <t>34,08%</t>
   </si>
   <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,70 +365,70 @@
     <t>63,42%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
   </si>
   <si>
     <t>49,15%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
   </si>
   <si>
     <t>36,58%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>65,83%</t>
   </si>
   <si>
-    <t>58,68%</t>
+    <t>58,43%</t>
   </si>
   <si>
     <t>68,39%</t>
@@ -437,19 +437,19 @@
     <t>69,6%</t>
   </si>
   <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>26,16%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>34,17%</t>
@@ -458,16 +458,16 @@
     <t>31,61%</t>
   </si>
   <si>
-    <t>41,32%</t>
+    <t>41,57%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43AC259-2073-461E-AA3F-71377DAC449C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993E9F80-E9A3-4599-97E6-25FCEBB3BC06}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1933,7 +1933,7 @@
         <v>2349</v>
       </c>
       <c r="D22" s="7">
-        <v>2424953</v>
+        <v>2424954</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>126</v>
@@ -1963,7 +1963,7 @@
         <v>5694</v>
       </c>
       <c r="N22" s="7">
-        <v>4857971</v>
+        <v>4857970</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -2035,7 +2035,7 @@
         <v>3305</v>
       </c>
       <c r="D24" s="7">
-        <v>3284124</v>
+        <v>3284125</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2065,7 +2065,7 @@
         <v>8513</v>
       </c>
       <c r="N24" s="7">
-        <v>6980195</v>
+        <v>6980194</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P33_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Edad-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{181A8D34-4794-49FC-8700-3E6FBB575B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C8319C-ECE4-4B84-B183-CBFCB3AF784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EEB25BE4-CF7A-48C3-9434-F2996035AA8B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AFFC3AD3-B724-4DAE-B5FD-C4CAA610B5C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,441 +39,1530 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>16/24</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
   <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
 </sst>
 </file>
@@ -882,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993E9F80-E9A3-4599-97E6-25FCEBB3BC06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698DDB0C-0A7A-4F94-A829-D8EEF6B632E0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1000,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>150</v>
+        <v>444</v>
       </c>
       <c r="D4" s="7">
-        <v>317886</v>
+        <v>437533</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1015,10 +2107,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>166</v>
+        <v>426</v>
       </c>
       <c r="I4" s="7">
-        <v>280815</v>
+        <v>407697</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1030,10 +2122,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>316</v>
+        <v>870</v>
       </c>
       <c r="N4" s="7">
-        <v>598701</v>
+        <v>845230</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1051,10 +2143,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>34455</v>
+        <v>50148</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1066,10 +2158,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I5" s="7">
-        <v>66114</v>
+        <v>56986</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1081,10 +2173,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N5" s="7">
-        <v>100569</v>
+        <v>107134</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1102,10 +2194,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>165</v>
+        <v>492</v>
       </c>
       <c r="D6" s="7">
-        <v>352341</v>
+        <v>487681</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1117,10 +2209,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>204</v>
+        <v>486</v>
       </c>
       <c r="I6" s="7">
-        <v>346929</v>
+        <v>464683</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1132,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>369</v>
+        <v>978</v>
       </c>
       <c r="N6" s="7">
-        <v>699270</v>
+        <v>952364</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1155,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>244</v>
+        <v>612</v>
       </c>
       <c r="D7" s="7">
-        <v>333989</v>
+        <v>639030</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1170,10 +2262,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>353</v>
+        <v>496</v>
       </c>
       <c r="I7" s="7">
-        <v>385141</v>
+        <v>525203</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1185,10 +2277,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>597</v>
+        <v>1108</v>
       </c>
       <c r="N7" s="7">
-        <v>719130</v>
+        <v>1164234</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1206,10 +2298,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D8" s="7">
-        <v>78491</v>
+        <v>87225</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1221,10 +2313,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I8" s="7">
-        <v>102509</v>
+        <v>95724</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1236,10 +2328,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="N8" s="7">
-        <v>181000</v>
+        <v>182948</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1257,10 +2349,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>295</v>
+        <v>694</v>
       </c>
       <c r="D9" s="7">
-        <v>412480</v>
+        <v>726255</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1272,10 +2364,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>451</v>
+        <v>587</v>
       </c>
       <c r="I9" s="7">
-        <v>487650</v>
+        <v>620927</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1287,10 +2379,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>746</v>
+        <v>1281</v>
       </c>
       <c r="N9" s="7">
-        <v>900130</v>
+        <v>1347182</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1310,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>417</v>
+        <v>503</v>
       </c>
       <c r="D10" s="7">
-        <v>421101</v>
+        <v>524373</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1325,10 +2417,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>594</v>
+        <v>549</v>
       </c>
       <c r="I10" s="7">
-        <v>414691</v>
+        <v>572388</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1340,10 +2432,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1011</v>
+        <v>1052</v>
       </c>
       <c r="N10" s="7">
-        <v>835791</v>
+        <v>1096762</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1361,10 +2453,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7">
-        <v>123138</v>
+        <v>101591</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1376,10 +2468,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="I11" s="7">
-        <v>145880</v>
+        <v>114503</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1391,10 +2483,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="N11" s="7">
-        <v>269019</v>
+        <v>216094</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1412,10 +2504,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="D12" s="7">
-        <v>544239</v>
+        <v>625964</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1427,10 +2519,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>816</v>
+        <v>655</v>
       </c>
       <c r="I12" s="7">
-        <v>560571</v>
+        <v>686891</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1442,10 +2534,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1351</v>
+        <v>1256</v>
       </c>
       <c r="N12" s="7">
-        <v>1104810</v>
+        <v>1312856</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1465,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="D13" s="7">
-        <v>507264</v>
+        <v>423776</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1480,10 +2572,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>763</v>
+        <v>394</v>
       </c>
       <c r="I13" s="7">
-        <v>512222</v>
+        <v>404444</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1495,10 +2587,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1216</v>
+        <v>790</v>
       </c>
       <c r="N13" s="7">
-        <v>1019486</v>
+        <v>828219</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1516,10 +2608,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="D14" s="7">
-        <v>201569</v>
+        <v>88554</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1531,10 +2623,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>358</v>
+        <v>105</v>
       </c>
       <c r="I14" s="7">
-        <v>220302</v>
+        <v>108140</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1546,10 +2638,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>558</v>
+        <v>186</v>
       </c>
       <c r="N14" s="7">
-        <v>421871</v>
+        <v>196695</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1567,10 +2659,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>653</v>
+        <v>477</v>
       </c>
       <c r="D15" s="7">
-        <v>708833</v>
+        <v>512330</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1582,10 +2674,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1121</v>
+        <v>499</v>
       </c>
       <c r="I15" s="7">
-        <v>732524</v>
+        <v>512584</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1597,10 +2689,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1774</v>
+        <v>976</v>
       </c>
       <c r="N15" s="7">
-        <v>1441357</v>
+        <v>1024914</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1620,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>453</v>
+        <v>307</v>
       </c>
       <c r="D16" s="7">
-        <v>411991</v>
+        <v>300635</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1635,10 +2727,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>581</v>
+        <v>288</v>
       </c>
       <c r="I16" s="7">
-        <v>351934</v>
+        <v>293759</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1650,10 +2742,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>1034</v>
+        <v>595</v>
       </c>
       <c r="N16" s="7">
-        <v>763925</v>
+        <v>594394</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1671,10 +2763,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7">
-        <v>171945</v>
+        <v>80613</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1686,10 +2778,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>391</v>
+        <v>105</v>
       </c>
       <c r="I17" s="7">
-        <v>223047</v>
+        <v>107109</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1701,10 +2793,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>587</v>
+        <v>184</v>
       </c>
       <c r="N17" s="7">
-        <v>394992</v>
+        <v>187722</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1722,10 +2814,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>649</v>
+        <v>386</v>
       </c>
       <c r="D18" s="7">
-        <v>583936</v>
+        <v>381248</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1737,10 +2829,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>972</v>
+        <v>393</v>
       </c>
       <c r="I18" s="7">
-        <v>574981</v>
+        <v>400868</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1752,10 +2844,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1621</v>
+        <v>779</v>
       </c>
       <c r="N18" s="7">
-        <v>1158917</v>
+        <v>782116</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1775,10 +2867,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>632</v>
+        <v>318</v>
       </c>
       <c r="D19" s="7">
-        <v>432724</v>
+        <v>305878</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1790,10 +2882,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>888</v>
+        <v>343</v>
       </c>
       <c r="I19" s="7">
-        <v>488214</v>
+        <v>346648</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1805,10 +2897,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1520</v>
+        <v>661</v>
       </c>
       <c r="N19" s="7">
-        <v>920938</v>
+        <v>652526</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1826,10 +2918,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>376</v>
+        <v>198</v>
       </c>
       <c r="D20" s="7">
-        <v>249572</v>
+        <v>190248</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1841,10 +2933,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>756</v>
+        <v>312</v>
       </c>
       <c r="I20" s="7">
-        <v>505201</v>
+        <v>324537</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1856,10 +2948,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1132</v>
+        <v>510</v>
       </c>
       <c r="N20" s="7">
-        <v>754773</v>
+        <v>514786</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1877,10 +2969,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1008</v>
+        <v>516</v>
       </c>
       <c r="D21" s="7">
-        <v>682296</v>
+        <v>496126</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +2984,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1644</v>
+        <v>655</v>
       </c>
       <c r="I21" s="7">
-        <v>993415</v>
+        <v>671185</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +2999,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2652</v>
+        <v>1171</v>
       </c>
       <c r="N21" s="7">
-        <v>1675711</v>
+        <v>1167312</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1930,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2349</v>
+        <v>2580</v>
       </c>
       <c r="D22" s="7">
-        <v>2424954</v>
+        <v>2631226</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>126</v>
@@ -1945,34 +3037,34 @@
         <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>3345</v>
+        <v>2496</v>
       </c>
       <c r="I22" s="7">
-        <v>2433017</v>
+        <v>2550138</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>5076</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5181365</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M22" s="7">
-        <v>5694</v>
-      </c>
-      <c r="N22" s="7">
-        <v>4857970</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +3073,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>956</v>
+        <v>586</v>
       </c>
       <c r="D23" s="7">
-        <v>859171</v>
+        <v>598379</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>779</v>
+      </c>
+      <c r="I23" s="7">
+        <v>807000</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>1863</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1263053</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1365</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1405378</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M23" s="7">
-        <v>2819</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2122224</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,6 +3124,3663 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>3166</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3229605</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3275</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3357138</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6441</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6586743</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D320138-9F4A-4741-A016-837A38C9FF98}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>370</v>
+      </c>
+      <c r="D4" s="7">
+        <v>380484</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="7">
+        <v>326</v>
+      </c>
+      <c r="I4" s="7">
+        <v>332874</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="7">
+        <v>696</v>
+      </c>
+      <c r="N4" s="7">
+        <v>713357</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7">
+        <v>71744</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="7">
+        <v>94</v>
+      </c>
+      <c r="I5" s="7">
+        <v>96393</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="7">
+        <v>168</v>
+      </c>
+      <c r="N5" s="7">
+        <v>168137</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>444</v>
+      </c>
+      <c r="D6" s="7">
+        <v>452228</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>420</v>
+      </c>
+      <c r="I6" s="7">
+        <v>429267</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>864</v>
+      </c>
+      <c r="N6" s="7">
+        <v>881494</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>538</v>
+      </c>
+      <c r="D7" s="7">
+        <v>552565</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="7">
+        <v>451</v>
+      </c>
+      <c r="I7" s="7">
+        <v>483010</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7" s="7">
+        <v>989</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1035575</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>128</v>
+      </c>
+      <c r="D8" s="7">
+        <v>133585</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="7">
+        <v>119</v>
+      </c>
+      <c r="I8" s="7">
+        <v>126181</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" s="7">
+        <v>247</v>
+      </c>
+      <c r="N8" s="7">
+        <v>259766</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>666</v>
+      </c>
+      <c r="D9" s="7">
+        <v>686150</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>570</v>
+      </c>
+      <c r="I9" s="7">
+        <v>609191</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1236</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1295341</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>508</v>
+      </c>
+      <c r="D10" s="7">
+        <v>533577</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="7">
+        <v>512</v>
+      </c>
+      <c r="I10" s="7">
+        <v>547059</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1020</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1080637</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>141</v>
+      </c>
+      <c r="D11" s="7">
+        <v>145446</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="7">
+        <v>153</v>
+      </c>
+      <c r="I11" s="7">
+        <v>161840</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11" s="7">
+        <v>294</v>
+      </c>
+      <c r="N11" s="7">
+        <v>307285</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>649</v>
+      </c>
+      <c r="D12" s="7">
+        <v>679023</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>665</v>
+      </c>
+      <c r="I12" s="7">
+        <v>708899</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1314</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1387922</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>406</v>
+      </c>
+      <c r="D13" s="7">
+        <v>450739</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="7">
+        <v>358</v>
+      </c>
+      <c r="I13" s="7">
+        <v>411460</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" s="7">
+        <v>764</v>
+      </c>
+      <c r="N13" s="7">
+        <v>862199</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>140</v>
+      </c>
+      <c r="D14" s="7">
+        <v>161826</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="7">
+        <v>181</v>
+      </c>
+      <c r="I14" s="7">
+        <v>204739</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M14" s="7">
+        <v>321</v>
+      </c>
+      <c r="N14" s="7">
+        <v>366565</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>546</v>
+      </c>
+      <c r="D15" s="7">
+        <v>612565</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>539</v>
+      </c>
+      <c r="I15" s="7">
+        <v>616199</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1085</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1228764</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>285</v>
+      </c>
+      <c r="D16" s="7">
+        <v>314425</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="7">
+        <v>238</v>
+      </c>
+      <c r="I16" s="7">
+        <v>263676</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M16" s="7">
+        <v>523</v>
+      </c>
+      <c r="N16" s="7">
+        <v>578101</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>106</v>
+      </c>
+      <c r="D17" s="7">
+        <v>112655</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="7">
+        <v>166</v>
+      </c>
+      <c r="I17" s="7">
+        <v>182075</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="7">
+        <v>272</v>
+      </c>
+      <c r="N17" s="7">
+        <v>294730</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>391</v>
+      </c>
+      <c r="D18" s="7">
+        <v>427080</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>404</v>
+      </c>
+      <c r="I18" s="7">
+        <v>445751</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>795</v>
+      </c>
+      <c r="N18" s="7">
+        <v>872831</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>265</v>
+      </c>
+      <c r="D19" s="7">
+        <v>297252</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="7">
+        <v>334</v>
+      </c>
+      <c r="I19" s="7">
+        <v>357117</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M19" s="7">
+        <v>599</v>
+      </c>
+      <c r="N19" s="7">
+        <v>654369</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>236</v>
+      </c>
+      <c r="D20" s="7">
+        <v>259262</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="7">
+        <v>357</v>
+      </c>
+      <c r="I20" s="7">
+        <v>382534</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" s="7">
+        <v>593</v>
+      </c>
+      <c r="N20" s="7">
+        <v>641796</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>501</v>
+      </c>
+      <c r="D21" s="7">
+        <v>556514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>691</v>
+      </c>
+      <c r="I21" s="7">
+        <v>739651</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1192</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1296165</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2372</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2529041</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2219</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2395197</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M22" s="7">
+        <v>4591</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4924238</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>825</v>
+      </c>
+      <c r="D23" s="7">
+        <v>884519</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1070</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1153761</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1895</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2038280</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3197</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3413560</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3289</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3548958</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6486</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6962518</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A251F-C99B-45D8-A040-D15F454ECE24}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>329</v>
+      </c>
+      <c r="D4" s="7">
+        <v>349857</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="7">
+        <v>328</v>
+      </c>
+      <c r="I4" s="7">
+        <v>320942</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M4" s="7">
+        <v>657</v>
+      </c>
+      <c r="N4" s="7">
+        <v>670799</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7">
+        <v>69606</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="7">
+        <v>75</v>
+      </c>
+      <c r="I5" s="7">
+        <v>73865</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="7">
+        <v>139</v>
+      </c>
+      <c r="N5" s="7">
+        <v>143471</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>393</v>
+      </c>
+      <c r="D6" s="7">
+        <v>419463</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>403</v>
+      </c>
+      <c r="I6" s="7">
+        <v>394807</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>796</v>
+      </c>
+      <c r="N6" s="7">
+        <v>814270</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>471</v>
+      </c>
+      <c r="D7" s="7">
+        <v>486594</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H7" s="7">
+        <v>488</v>
+      </c>
+      <c r="I7" s="7">
+        <v>474644</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M7" s="7">
+        <v>959</v>
+      </c>
+      <c r="N7" s="7">
+        <v>961238</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>96</v>
+      </c>
+      <c r="D8" s="7">
+        <v>103902</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="7">
+        <v>89</v>
+      </c>
+      <c r="I8" s="7">
+        <v>87071</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" s="7">
+        <v>185</v>
+      </c>
+      <c r="N8" s="7">
+        <v>190973</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>567</v>
+      </c>
+      <c r="D9" s="7">
+        <v>590496</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>577</v>
+      </c>
+      <c r="I9" s="7">
+        <v>561715</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1144</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1152211</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>516</v>
+      </c>
+      <c r="D10" s="7">
+        <v>537045</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" s="7">
+        <v>527</v>
+      </c>
+      <c r="I10" s="7">
+        <v>522811</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1043</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1059856</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>121</v>
+      </c>
+      <c r="D11" s="7">
+        <v>130465</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="7">
+        <v>138</v>
+      </c>
+      <c r="I11" s="7">
+        <v>138575</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M11" s="7">
+        <v>259</v>
+      </c>
+      <c r="N11" s="7">
+        <v>269040</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>637</v>
+      </c>
+      <c r="D12" s="7">
+        <v>667510</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>665</v>
+      </c>
+      <c r="I12" s="7">
+        <v>661386</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1302</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1328896</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>460</v>
+      </c>
+      <c r="D13" s="7">
+        <v>510378</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="7">
+        <v>438</v>
+      </c>
+      <c r="I13" s="7">
+        <v>468500</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M13" s="7">
+        <v>898</v>
+      </c>
+      <c r="N13" s="7">
+        <v>978878</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>120</v>
+      </c>
+      <c r="D14" s="7">
+        <v>133410</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H14" s="7">
+        <v>161</v>
+      </c>
+      <c r="I14" s="7">
+        <v>177512</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M14" s="7">
+        <v>281</v>
+      </c>
+      <c r="N14" s="7">
+        <v>310922</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>580</v>
+      </c>
+      <c r="D15" s="7">
+        <v>643788</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>599</v>
+      </c>
+      <c r="I15" s="7">
+        <v>646012</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1179</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1289800</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>321</v>
+      </c>
+      <c r="D16" s="7">
+        <v>358950</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16" s="7">
+        <v>283</v>
+      </c>
+      <c r="I16" s="7">
+        <v>324281</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M16" s="7">
+        <v>604</v>
+      </c>
+      <c r="N16" s="7">
+        <v>683232</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>102</v>
+      </c>
+      <c r="D17" s="7">
+        <v>117774</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" s="7">
+        <v>149</v>
+      </c>
+      <c r="I17" s="7">
+        <v>171522</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M17" s="7">
+        <v>251</v>
+      </c>
+      <c r="N17" s="7">
+        <v>289296</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>423</v>
+      </c>
+      <c r="D18" s="7">
+        <v>476724</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>432</v>
+      </c>
+      <c r="I18" s="7">
+        <v>495803</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>855</v>
+      </c>
+      <c r="N18" s="7">
+        <v>972528</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>381</v>
+      </c>
+      <c r="D19" s="7">
+        <v>358139</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H19" s="7">
+        <v>344</v>
+      </c>
+      <c r="I19" s="7">
+        <v>411919</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M19" s="7">
+        <v>725</v>
+      </c>
+      <c r="N19" s="7">
+        <v>770058</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>244</v>
+      </c>
+      <c r="D20" s="7">
+        <v>231464</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H20" s="7">
+        <v>305</v>
+      </c>
+      <c r="I20" s="7">
+        <v>358359</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="M20" s="7">
+        <v>549</v>
+      </c>
+      <c r="N20" s="7">
+        <v>589824</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>625</v>
+      </c>
+      <c r="D21" s="7">
+        <v>589603</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>649</v>
+      </c>
+      <c r="I21" s="7">
+        <v>770278</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1274</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1359882</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2478</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2600963</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2408</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2523098</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="M22" s="7">
+        <v>4886</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5124061</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>747</v>
+      </c>
+      <c r="D23" s="7">
+        <v>786621</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H23" s="7">
+        <v>917</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1006904</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1664</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1793526</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3225</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3387584</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3325</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3530002</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6550</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6917587</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3142CEC-D39E-4733-A6FA-5245312E114B}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>152</v>
+      </c>
+      <c r="D4" s="7">
+        <v>323353</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="7">
+        <v>173</v>
+      </c>
+      <c r="I4" s="7">
+        <v>295002</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M4" s="7">
+        <v>325</v>
+      </c>
+      <c r="N4" s="7">
+        <v>618356</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28988</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="7">
+        <v>31</v>
+      </c>
+      <c r="I5" s="7">
+        <v>51927</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M5" s="7">
+        <v>44</v>
+      </c>
+      <c r="N5" s="7">
+        <v>80914</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>165</v>
+      </c>
+      <c r="D6" s="7">
+        <v>352341</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>204</v>
+      </c>
+      <c r="I6" s="7">
+        <v>346929</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>369</v>
+      </c>
+      <c r="N6" s="7">
+        <v>699270</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>253</v>
+      </c>
+      <c r="D7" s="7">
+        <v>351572</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H7" s="7">
+        <v>362</v>
+      </c>
+      <c r="I7" s="7">
+        <v>392918</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="M7" s="7">
+        <v>615</v>
+      </c>
+      <c r="N7" s="7">
+        <v>744490</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7">
+        <v>60908</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H8" s="7">
+        <v>89</v>
+      </c>
+      <c r="I8" s="7">
+        <v>94732</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="M8" s="7">
+        <v>131</v>
+      </c>
+      <c r="N8" s="7">
+        <v>155640</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>295</v>
+      </c>
+      <c r="D9" s="7">
+        <v>412480</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>451</v>
+      </c>
+      <c r="I9" s="7">
+        <v>487650</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>746</v>
+      </c>
+      <c r="N9" s="7">
+        <v>900130</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>428</v>
+      </c>
+      <c r="D10" s="7">
+        <v>435040</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H10" s="7">
+        <v>622</v>
+      </c>
+      <c r="I10" s="7">
+        <v>433749</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1050</v>
+      </c>
+      <c r="N10" s="7">
+        <v>868790</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>107</v>
+      </c>
+      <c r="D11" s="7">
+        <v>109199</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H11" s="7">
+        <v>194</v>
+      </c>
+      <c r="I11" s="7">
+        <v>126822</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M11" s="7">
+        <v>301</v>
+      </c>
+      <c r="N11" s="7">
+        <v>236020</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>535</v>
+      </c>
+      <c r="D12" s="7">
+        <v>544239</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>816</v>
+      </c>
+      <c r="I12" s="7">
+        <v>560571</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1351</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1104810</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>472</v>
+      </c>
+      <c r="D13" s="7">
+        <v>528079</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H13" s="7">
+        <v>792</v>
+      </c>
+      <c r="I13" s="7">
+        <v>530632</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1264</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1058712</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>181</v>
+      </c>
+      <c r="D14" s="7">
+        <v>180754</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="7">
+        <v>329</v>
+      </c>
+      <c r="I14" s="7">
+        <v>201892</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="M14" s="7">
+        <v>510</v>
+      </c>
+      <c r="N14" s="7">
+        <v>382645</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>653</v>
+      </c>
+      <c r="D15" s="7">
+        <v>708833</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1121</v>
+      </c>
+      <c r="I15" s="7">
+        <v>732524</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1774</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1441357</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>460</v>
+      </c>
+      <c r="D16" s="7">
+        <v>418913</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H16" s="7">
+        <v>583</v>
+      </c>
+      <c r="I16" s="7">
+        <v>353401</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1043</v>
+      </c>
+      <c r="N16" s="7">
+        <v>772315</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>189</v>
+      </c>
+      <c r="D17" s="7">
+        <v>165023</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H17" s="7">
+        <v>389</v>
+      </c>
+      <c r="I17" s="7">
+        <v>221580</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M17" s="7">
+        <v>578</v>
+      </c>
+      <c r="N17" s="7">
+        <v>386602</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>649</v>
+      </c>
+      <c r="D18" s="7">
+        <v>583936</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>972</v>
+      </c>
+      <c r="I18" s="7">
+        <v>574981</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1621</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1158917</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>634</v>
+      </c>
+      <c r="D19" s="7">
+        <v>433609</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H19" s="7">
+        <v>893</v>
+      </c>
+      <c r="I19" s="7">
+        <v>490895</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1527</v>
+      </c>
+      <c r="N19" s="7">
+        <v>924504</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>374</v>
+      </c>
+      <c r="D20" s="7">
+        <v>248687</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H20" s="7">
+        <v>751</v>
+      </c>
+      <c r="I20" s="7">
+        <v>502520</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1125</v>
+      </c>
+      <c r="N20" s="7">
+        <v>751207</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1008</v>
+      </c>
+      <c r="D21" s="7">
+        <v>682296</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1644</v>
+      </c>
+      <c r="I21" s="7">
+        <v>993415</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2652</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1675711</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2399</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2490568</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3425</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2496598</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5824</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4987165</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>906</v>
+      </c>
+      <c r="D23" s="7">
+        <v>793557</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1783</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1199472</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2689</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1993029</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
         <v>3305</v>
       </c>
       <c r="D24" s="7">
@@ -2079,7 +6828,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C8319C-ECE4-4B84-B183-CBFCB3AF784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D73C1FD-4F5C-445B-B6FE-268835F03095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AFFC3AD3-B724-4DAE-B5FD-C4CAA610B5C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9768CC45-D73F-4C96-ADD9-31697809666B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
   <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>89,72%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>87,74%</t>
   </si>
   <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>10,28%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>12,26%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>87,99%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>86,42%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1372 +197,1384 @@
     <t>83,77%</t>
   </si>
   <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2012 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
   </si>
   <si>
     <t>69,05%</t>
   </si>
   <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
   <si>
     <t>30,95%</t>
   </si>
   <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>35,81%</t>
   </si>
   <si>
     <t>63,55%</t>
   </si>
   <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>66,55%</t>
   </si>
   <si>
     <t>49,41%</t>
   </si>
   <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
     <t>32,27%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698DDB0C-0A7A-4F94-A829-D8EEF6B632E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2857D992-BEB1-4083-9996-DAD5D7F140C4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2435,7 +2447,7 @@
         <v>1052</v>
       </c>
       <c r="N10" s="7">
-        <v>1096762</v>
+        <v>1096761</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2537,7 +2549,7 @@
         <v>1256</v>
       </c>
       <c r="N12" s="7">
-        <v>1312856</v>
+        <v>1312855</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3046,10 +3058,10 @@
         <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>5076</v>
@@ -3058,13 +3070,13 @@
         <v>5181365</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3091,13 @@
         <v>598379</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>779</v>
@@ -3094,13 +3106,13 @@
         <v>807000</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1365</v>
@@ -3109,13 +3121,13 @@
         <v>1405378</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,7 +3183,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D320138-9F4A-4741-A016-837A38C9FF98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85B927A-8EA7-4FD4-B5A5-1B712C12902F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3210,7 +3222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,13 +3329,13 @@
         <v>380484</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>326</v>
@@ -3332,13 +3344,13 @@
         <v>332874</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>696</v>
@@ -3347,13 +3359,13 @@
         <v>713357</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3380,13 @@
         <v>71744</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -3383,13 +3395,13 @@
         <v>96393</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>168</v>
@@ -3398,13 +3410,13 @@
         <v>168137</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3484,13 @@
         <v>552565</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>451</v>
@@ -3487,13 +3499,13 @@
         <v>483010</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>989</v>
@@ -3502,13 +3514,13 @@
         <v>1035575</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3535,13 @@
         <v>133585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>119</v>
@@ -3538,13 +3550,13 @@
         <v>126181</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>247</v>
@@ -3553,13 +3565,13 @@
         <v>259766</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3639,13 @@
         <v>533577</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>512</v>
@@ -3642,13 +3654,13 @@
         <v>547059</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>1020</v>
@@ -3657,13 +3669,13 @@
         <v>1080637</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3690,13 @@
         <v>145446</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -3693,13 +3705,13 @@
         <v>161840</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>294</v>
@@ -3708,13 +3720,13 @@
         <v>307285</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3794,13 @@
         <v>450739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>358</v>
@@ -3797,13 +3809,13 @@
         <v>411460</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>764</v>
@@ -3812,13 +3824,13 @@
         <v>862199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3845,13 @@
         <v>161826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -3848,13 +3860,13 @@
         <v>204739</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
@@ -3863,13 +3875,13 @@
         <v>366565</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3949,13 @@
         <v>314425</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>238</v>
@@ -3952,13 +3964,13 @@
         <v>263676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>523</v>
@@ -3967,13 +3979,13 @@
         <v>578101</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4000,13 @@
         <v>112655</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -4003,13 +4015,13 @@
         <v>182075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>272</v>
@@ -4018,13 +4030,13 @@
         <v>294730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4104,13 @@
         <v>297252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>334</v>
@@ -4107,13 +4119,13 @@
         <v>357117</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>599</v>
@@ -4122,13 +4134,13 @@
         <v>654369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4155,13 @@
         <v>259262</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>357</v>
@@ -4158,13 +4170,13 @@
         <v>382534</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>593</v>
@@ -4173,13 +4185,13 @@
         <v>641796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4259,13 @@
         <v>2529041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>2219</v>
@@ -4262,13 +4274,13 @@
         <v>2395197</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>4591</v>
@@ -4277,13 +4289,13 @@
         <v>4924238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4310,13 @@
         <v>884519</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>1070</v>
@@ -4313,13 +4325,13 @@
         <v>1153761</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>1895</v>
@@ -4328,13 +4340,13 @@
         <v>2038280</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,7 +4402,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4412,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A251F-C99B-45D8-A040-D15F454ECE24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F643A2-425B-4836-A076-A02511731DC0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +4548,13 @@
         <v>349857</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>328</v>
@@ -4551,13 +4563,13 @@
         <v>320942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>657</v>
@@ -4566,13 +4578,13 @@
         <v>670799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4599,13 @@
         <v>69606</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -4602,13 +4614,13 @@
         <v>73865</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>139</v>
@@ -4617,13 +4629,13 @@
         <v>143471</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4703,13 @@
         <v>486594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>488</v>
@@ -4706,13 +4718,13 @@
         <v>474644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>959</v>
@@ -4721,13 +4733,13 @@
         <v>961238</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4754,13 @@
         <v>103902</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -4757,13 +4769,13 @@
         <v>87071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>185</v>
@@ -4772,13 +4784,13 @@
         <v>190973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4858,13 @@
         <v>537045</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>527</v>
@@ -4861,13 +4873,13 @@
         <v>522811</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>1043</v>
@@ -4876,13 +4888,13 @@
         <v>1059856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4909,13 @@
         <v>130465</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
         <v>138</v>
@@ -4912,13 +4924,13 @@
         <v>138575</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
@@ -4927,13 +4939,13 @@
         <v>269040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5013,13 @@
         <v>510378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>438</v>
@@ -5016,13 +5028,13 @@
         <v>468500</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>898</v>
@@ -5031,13 +5043,13 @@
         <v>978878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5064,13 @@
         <v>133410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -5067,13 +5079,13 @@
         <v>177512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7">
         <v>281</v>
@@ -5082,13 +5094,13 @@
         <v>310922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5168,13 @@
         <v>358950</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>283</v>
@@ -5171,13 +5183,13 @@
         <v>324281</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>604</v>
@@ -5186,13 +5198,13 @@
         <v>683232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5219,13 @@
         <v>117774</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>149</v>
@@ -5222,13 +5234,13 @@
         <v>171522</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>251</v>
@@ -5237,13 +5249,13 @@
         <v>289296</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5323,13 @@
         <v>358139</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H19" s="7">
         <v>344</v>
@@ -5326,13 +5338,13 @@
         <v>411919</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M19" s="7">
         <v>725</v>
@@ -5341,13 +5353,13 @@
         <v>770058</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5374,13 @@
         <v>231464</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>305</v>
@@ -5377,13 +5389,13 @@
         <v>358359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>549</v>
@@ -5392,13 +5404,13 @@
         <v>589824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5478,13 @@
         <v>2600963</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>2408</v>
@@ -5481,13 +5493,13 @@
         <v>2523098</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>4886</v>
@@ -5496,13 +5508,13 @@
         <v>5124061</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5529,13 @@
         <v>786621</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="H23" s="7">
         <v>917</v>
@@ -5532,13 +5544,13 @@
         <v>1006904</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>1664</v>
@@ -5547,13 +5559,13 @@
         <v>1793526</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5621,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5631,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3142CEC-D39E-4733-A6FA-5245312E114B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49F3F4C-DD92-43C4-A166-2B5B51CFC64A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5660,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5767,13 @@
         <v>323353</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="H4" s="7">
         <v>173</v>
@@ -5770,13 +5782,13 @@
         <v>295002</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="M4" s="7">
         <v>325</v>
@@ -5785,13 +5797,13 @@
         <v>618356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5818,13 @@
         <v>28988</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -5821,13 +5833,13 @@
         <v>51927</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -5836,13 +5848,13 @@
         <v>80914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5922,13 @@
         <v>351572</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>408</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H7" s="7">
         <v>362</v>
@@ -5925,13 +5937,13 @@
         <v>392918</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M7" s="7">
         <v>615</v>
@@ -5940,13 +5952,13 @@
         <v>744490</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5973,13 @@
         <v>60908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -5976,13 +5988,13 @@
         <v>94732</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M8" s="7">
         <v>131</v>
@@ -5991,13 +6003,13 @@
         <v>155640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6077,13 @@
         <v>435040</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>622</v>
@@ -6080,13 +6092,13 @@
         <v>433749</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>1050</v>
@@ -6095,13 +6107,13 @@
         <v>868790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6128,13 @@
         <v>109199</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>433</v>
+        <v>304</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
@@ -6131,13 +6143,13 @@
         <v>126822</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>435</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>437</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M11" s="7">
         <v>301</v>
@@ -6146,13 +6158,13 @@
         <v>236020</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6232,13 @@
         <v>528079</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>443</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>792</v>
@@ -6235,13 +6247,13 @@
         <v>530632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M13" s="7">
         <v>1264</v>
@@ -6250,13 +6262,13 @@
         <v>1058712</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6283,13 @@
         <v>180754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>348</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>329</v>
@@ -6286,13 +6298,13 @@
         <v>201892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>510</v>
@@ -6301,13 +6313,13 @@
         <v>382645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6387,13 @@
         <v>418913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
         <v>583</v>
@@ -6390,13 +6402,13 @@
         <v>353401</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
         <v>1043</v>
@@ -6405,13 +6417,13 @@
         <v>772315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6438,13 @@
         <v>165023</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H17" s="7">
         <v>389</v>
@@ -6441,13 +6453,13 @@
         <v>221580</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>578</v>
@@ -6456,13 +6468,13 @@
         <v>386602</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6542,13 @@
         <v>433609</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>347</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H19" s="7">
         <v>893</v>
@@ -6545,13 +6557,13 @@
         <v>490895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M19" s="7">
         <v>1527</v>
@@ -6560,13 +6572,13 @@
         <v>924504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6593,13 @@
         <v>248687</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>357</v>
       </c>
       <c r="H20" s="7">
         <v>751</v>
@@ -6596,13 +6608,13 @@
         <v>502520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>1125</v>
@@ -6611,13 +6623,13 @@
         <v>751207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,16 +6694,16 @@
         <v>2399</v>
       </c>
       <c r="D22" s="7">
-        <v>2490568</v>
+        <v>2490567</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>495</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H22" s="7">
         <v>3425</v>
@@ -6700,28 +6712,28 @@
         <v>2496598</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7">
         <v>5824</v>
       </c>
       <c r="N22" s="7">
-        <v>4987165</v>
+        <v>4987166</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6748,13 @@
         <v>793557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>505</v>
       </c>
       <c r="H23" s="7">
         <v>1783</v>
@@ -6751,13 +6763,13 @@
         <v>1199472</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M23" s="7">
         <v>2689</v>
@@ -6766,13 +6778,13 @@
         <v>1993029</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,7 +6796,7 @@
         <v>3305</v>
       </c>
       <c r="D24" s="7">
-        <v>3284125</v>
+        <v>3284124</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6814,7 +6826,7 @@
         <v>8513</v>
       </c>
       <c r="N24" s="7">
-        <v>6980194</v>
+        <v>6980195</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6828,7 +6840,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D73C1FD-4F5C-445B-B6FE-268835F03095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21B7D84-EE0A-46C1-93C4-605D2437322B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9768CC45-D73F-4C96-ADD9-31697809666B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8F760923-DA98-441D-9F14-A6EC89CAA1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="583">
   <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>87,99%</t>
@@ -191,7 +191,7 @@
     <t>15,65%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>83,77%</t>
@@ -248,7 +248,7 @@
     <t>18,61%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>82,72%</t>
@@ -305,7 +305,7 @@
     <t>21,92%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>78,86%</t>
@@ -362,61 +362,112 @@
     <t>26,87%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>81,47%</t>
@@ -749,58 +800,112 @@
     <t>37,17%</t>
   </si>
   <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
   </si>
   <si>
     <t>74,09%</t>
@@ -1124,58 +1229,112 @@
     <t>32,86%</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
   <si>
     <t>76,78%</t>
@@ -1235,346 +1394,400 @@
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>91,72%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>15,28%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
   </si>
   <si>
     <t>85,23%</t>
   </si>
   <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +2199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2857D992-BEB1-4083-9996-DAD5D7F140C4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DAF729-A21F-4D3A-9599-5F28BC944F88}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2879,10 +3092,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="D19" s="7">
-        <v>305878</v>
+        <v>186070</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2894,10 +3107,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>343</v>
+        <v>209</v>
       </c>
       <c r="I19" s="7">
-        <v>346648</v>
+        <v>192246</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2909,10 +3122,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>661</v>
+        <v>401</v>
       </c>
       <c r="N19" s="7">
-        <v>652526</v>
+        <v>378315</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2930,10 +3143,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="D20" s="7">
-        <v>190248</v>
+        <v>103703</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2945,10 +3158,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="I20" s="7">
-        <v>324537</v>
+        <v>145953</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2960,10 +3173,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>510</v>
+        <v>265</v>
       </c>
       <c r="N20" s="7">
-        <v>514786</v>
+        <v>249656</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2981,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>516</v>
+        <v>300</v>
       </c>
       <c r="D21" s="7">
-        <v>496126</v>
+        <v>289773</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2996,10 +3209,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>366</v>
       </c>
       <c r="I21" s="7">
-        <v>671185</v>
+        <v>338199</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3011,10 +3224,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1171</v>
+        <v>666</v>
       </c>
       <c r="N21" s="7">
-        <v>1167312</v>
+        <v>627971</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3028,31 +3241,31 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2580</v>
+        <v>126</v>
       </c>
       <c r="D22" s="7">
-        <v>2631226</v>
+        <v>119807</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
-        <v>2496</v>
+        <v>134</v>
       </c>
       <c r="I22" s="7">
-        <v>2550138</v>
+        <v>154403</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>129</v>
@@ -3064,10 +3277,10 @@
         <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>5076</v>
+        <v>260</v>
       </c>
       <c r="N22" s="7">
-        <v>5181365</v>
+        <v>274210</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3085,49 +3298,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>586</v>
+        <v>90</v>
       </c>
       <c r="D23" s="7">
-        <v>598379</v>
+        <v>86546</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>155</v>
+      </c>
+      <c r="I23" s="7">
+        <v>178584</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>779</v>
-      </c>
-      <c r="I23" s="7">
-        <v>807000</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>245</v>
+      </c>
+      <c r="N23" s="7">
+        <v>265130</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M23" s="7">
-        <v>1365</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1405378</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,63 +3349,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>216</v>
+      </c>
+      <c r="D24" s="7">
+        <v>206353</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>289</v>
+      </c>
+      <c r="I24" s="7">
+        <v>332987</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>505</v>
+      </c>
+      <c r="N24" s="7">
+        <v>539340</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2580</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2631226</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2496</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2550138</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5076</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5181365</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>586</v>
+      </c>
+      <c r="D26" s="7">
+        <v>598379</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>779</v>
+      </c>
+      <c r="I26" s="7">
+        <v>807000</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1365</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1405378</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3166</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3229605</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3275</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3357138</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6441</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6586743</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3205,8 +3574,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85B927A-8EA7-4FD4-B5A5-1B712C12902F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30E0239-F35F-47BE-8446-906D8D61E604}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3222,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3329,13 +3698,13 @@
         <v>380484</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>326</v>
@@ -3344,13 +3713,13 @@
         <v>332874</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>696</v>
@@ -3359,13 +3728,13 @@
         <v>713357</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3749,13 @@
         <v>71744</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -3395,13 +3764,13 @@
         <v>96393</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>168</v>
@@ -3410,13 +3779,13 @@
         <v>168137</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3853,13 @@
         <v>552565</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>451</v>
@@ -3499,13 +3868,13 @@
         <v>483010</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>989</v>
@@ -3514,13 +3883,13 @@
         <v>1035575</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3904,13 @@
         <v>133585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>119</v>
@@ -3550,13 +3919,13 @@
         <v>126181</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>247</v>
@@ -3565,13 +3934,13 @@
         <v>259766</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +4008,13 @@
         <v>533577</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>512</v>
@@ -3654,13 +4023,13 @@
         <v>547059</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>1020</v>
@@ -3669,13 +4038,13 @@
         <v>1080637</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +4059,13 @@
         <v>145446</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -3705,13 +4074,13 @@
         <v>161840</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>294</v>
@@ -3720,13 +4089,13 @@
         <v>307285</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +4163,13 @@
         <v>450739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>358</v>
@@ -3809,13 +4178,13 @@
         <v>411460</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>764</v>
@@ -3824,13 +4193,13 @@
         <v>862199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +4214,13 @@
         <v>161826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -3860,13 +4229,13 @@
         <v>204739</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
@@ -3875,13 +4244,13 @@
         <v>366565</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +4318,13 @@
         <v>314425</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>238</v>
@@ -3964,13 +4333,13 @@
         <v>263676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>523</v>
@@ -3979,13 +4348,13 @@
         <v>578101</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4369,13 @@
         <v>112655</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -4015,13 +4384,13 @@
         <v>182075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>272</v>
@@ -4030,13 +4399,13 @@
         <v>294730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,49 +4467,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="D19" s="7">
-        <v>297252</v>
+        <v>167781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
+        <v>184</v>
+      </c>
+      <c r="I19" s="7">
+        <v>189004</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M19" s="7">
         <v>334</v>
       </c>
-      <c r="I19" s="7">
-        <v>357117</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M19" s="7">
-        <v>599</v>
-      </c>
       <c r="N19" s="7">
-        <v>654369</v>
+        <v>356786</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,49 +4518,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="D20" s="7">
-        <v>259262</v>
+        <v>142005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
-        <v>357</v>
+        <v>159</v>
       </c>
       <c r="I20" s="7">
-        <v>382534</v>
+        <v>164101</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
-        <v>593</v>
+        <v>291</v>
       </c>
       <c r="N20" s="7">
-        <v>641796</v>
+        <v>306106</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,10 +4569,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>501</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>556514</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4215,10 +4584,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>691</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>739651</v>
+        <v>353105</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4230,10 +4599,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1192</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1296165</v>
+        <v>662892</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4247,55 +4616,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2372</v>
+        <v>115</v>
       </c>
       <c r="D22" s="7">
-        <v>2529041</v>
+        <v>129471</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>2219</v>
+        <v>150</v>
       </c>
       <c r="I22" s="7">
-        <v>2395197</v>
+        <v>168113</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
-        <v>4591</v>
+        <v>265</v>
       </c>
       <c r="N22" s="7">
-        <v>4924238</v>
+        <v>297583</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,49 +4673,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>825</v>
+        <v>104</v>
       </c>
       <c r="D23" s="7">
-        <v>884519</v>
+        <v>117257</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
-        <v>1070</v>
+        <v>198</v>
       </c>
       <c r="I23" s="7">
-        <v>1153761</v>
+        <v>218432</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
-        <v>1895</v>
+        <v>302</v>
       </c>
       <c r="N23" s="7">
-        <v>2038280</v>
+        <v>335690</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,63 +4724,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>219</v>
+      </c>
+      <c r="D24" s="7">
+        <v>246728</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>348</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386545</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>567</v>
+      </c>
+      <c r="N24" s="7">
+        <v>633273</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2372</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2529041</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2219</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2395197</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4591</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4924238</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>825</v>
+      </c>
+      <c r="D26" s="7">
+        <v>884519</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1070</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1153761</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1895</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2038279</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3197</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3413560</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3289</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3548958</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6486</v>
       </c>
-      <c r="N24" s="7">
-        <v>6962518</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6962517</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4424,8 +4949,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F643A2-425B-4836-A076-A02511731DC0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE0508F-78D1-422E-AE1A-57CEB87BEA49}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4441,7 +4966,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,13 +5073,13 @@
         <v>349857</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="H4" s="7">
         <v>328</v>
@@ -4563,13 +5088,13 @@
         <v>320942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>657</v>
@@ -4578,13 +5103,13 @@
         <v>670799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +5124,13 @@
         <v>69606</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -4614,13 +5139,13 @@
         <v>73865</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>139</v>
@@ -4629,13 +5154,13 @@
         <v>143471</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +5228,13 @@
         <v>486594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>488</v>
@@ -4718,13 +5243,13 @@
         <v>474644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>959</v>
@@ -4733,13 +5258,13 @@
         <v>961238</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,10 +5279,10 @@
         <v>103902</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>98</v>
@@ -4769,13 +5294,13 @@
         <v>87071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>185</v>
@@ -4784,13 +5309,13 @@
         <v>190973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +5383,13 @@
         <v>537045</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>527</v>
@@ -4873,13 +5398,13 @@
         <v>522811</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>1043</v>
@@ -4888,13 +5413,13 @@
         <v>1059856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +5434,13 @@
         <v>130465</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>138</v>
@@ -4924,13 +5449,13 @@
         <v>138575</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
@@ -4939,13 +5464,13 @@
         <v>269040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,28 +5538,28 @@
         <v>510378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>438</v>
       </c>
       <c r="I13" s="7">
-        <v>468500</v>
+        <v>468501</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>898</v>
@@ -5043,13 +5568,13 @@
         <v>978878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5589,13 @@
         <v>133410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -5079,13 +5604,13 @@
         <v>177512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>281</v>
@@ -5094,13 +5619,13 @@
         <v>310922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,7 +5652,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>646012</v>
+        <v>646013</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5168,13 +5693,13 @@
         <v>358950</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>283</v>
@@ -5183,13 +5708,13 @@
         <v>324281</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>604</v>
@@ -5198,13 +5723,13 @@
         <v>683232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5744,13 @@
         <v>117774</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>149</v>
@@ -5234,13 +5759,13 @@
         <v>171522</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>251</v>
@@ -5249,13 +5774,13 @@
         <v>289296</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,49 +5842,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>381</v>
+        <v>207</v>
       </c>
       <c r="D19" s="7">
-        <v>358139</v>
+        <v>211552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
-        <v>344</v>
+        <v>185</v>
       </c>
       <c r="I19" s="7">
-        <v>411919</v>
+        <v>199374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
-        <v>725</v>
+        <v>392</v>
       </c>
       <c r="N19" s="7">
-        <v>770058</v>
+        <v>410926</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,49 +5893,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="D20" s="7">
-        <v>231464</v>
+        <v>122778</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="I20" s="7">
-        <v>358359</v>
+        <v>177419</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
-        <v>549</v>
+        <v>286</v>
       </c>
       <c r="N20" s="7">
-        <v>589824</v>
+        <v>300197</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,10 +5944,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>589603</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5434,10 +5959,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>649</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>770278</v>
+        <v>376793</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5449,10 +5974,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1274</v>
+        <v>678</v>
       </c>
       <c r="N21" s="7">
-        <v>1359882</v>
+        <v>711123</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5466,55 +5991,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2478</v>
+        <v>174</v>
       </c>
       <c r="D22" s="7">
-        <v>2600963</v>
+        <v>146586</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
-        <v>2408</v>
+        <v>159</v>
       </c>
       <c r="I22" s="7">
-        <v>2523098</v>
+        <v>212545</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
-        <v>4886</v>
+        <v>333</v>
       </c>
       <c r="N22" s="7">
-        <v>5124061</v>
+        <v>359131</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,49 +6048,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>747</v>
+        <v>126</v>
       </c>
       <c r="D23" s="7">
-        <v>786621</v>
+        <v>108687</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="H23" s="7">
-        <v>917</v>
+        <v>137</v>
       </c>
       <c r="I23" s="7">
-        <v>1006904</v>
+        <v>180940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="M23" s="7">
-        <v>1664</v>
+        <v>263</v>
       </c>
       <c r="N23" s="7">
-        <v>1793526</v>
+        <v>289627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,63 +6099,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>300</v>
+      </c>
+      <c r="D24" s="7">
+        <v>255273</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>296</v>
+      </c>
+      <c r="I24" s="7">
+        <v>393485</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>596</v>
+      </c>
+      <c r="N24" s="7">
+        <v>648758</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2478</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2600963</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2408</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2523098</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4886</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5124061</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>747</v>
+      </c>
+      <c r="D26" s="7">
+        <v>786621</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H26" s="7">
+        <v>917</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1006904</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1664</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1793526</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3225</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3387584</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3325</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3530002</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6550</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6917587</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5643,8 +6324,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49F3F4C-DD92-43C4-A166-2B5B51CFC64A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5CF149-8C22-4E97-8F61-BDCA28946B80}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5660,7 +6341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5764,46 +6445,46 @@
         <v>152</v>
       </c>
       <c r="D4" s="7">
-        <v>323353</v>
+        <v>337835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="H4" s="7">
         <v>173</v>
       </c>
       <c r="I4" s="7">
-        <v>295002</v>
+        <v>260133</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>278</v>
+        <v>454</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="M4" s="7">
         <v>325</v>
       </c>
       <c r="N4" s="7">
-        <v>618356</v>
+        <v>597969</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,46 +6496,46 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>28988</v>
+        <v>33352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>51927</v>
+        <v>45925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>286</v>
+        <v>463</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>80914</v>
+        <v>79277</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,7 +6547,7 @@
         <v>165</v>
       </c>
       <c r="D6" s="7">
-        <v>352341</v>
+        <v>371187</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5881,7 +6562,7 @@
         <v>204</v>
       </c>
       <c r="I6" s="7">
-        <v>346929</v>
+        <v>306058</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5896,7 +6577,7 @@
         <v>369</v>
       </c>
       <c r="N6" s="7">
-        <v>699270</v>
+        <v>677246</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5919,46 +6600,46 @@
         <v>253</v>
       </c>
       <c r="D7" s="7">
-        <v>351572</v>
+        <v>342922</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="H7" s="7">
         <v>362</v>
       </c>
       <c r="I7" s="7">
-        <v>392918</v>
+        <v>411731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="M7" s="7">
         <v>615</v>
       </c>
       <c r="N7" s="7">
-        <v>744490</v>
+        <v>754654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>401</v>
+        <v>476</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,46 +6651,46 @@
         <v>42</v>
       </c>
       <c r="D8" s="7">
-        <v>60908</v>
+        <v>63803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
       </c>
       <c r="I8" s="7">
-        <v>94732</v>
+        <v>89724</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="M8" s="7">
         <v>131</v>
       </c>
       <c r="N8" s="7">
-        <v>155640</v>
+        <v>153526</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,7 +6702,7 @@
         <v>295</v>
       </c>
       <c r="D9" s="7">
-        <v>412480</v>
+        <v>406725</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6036,7 +6717,7 @@
         <v>451</v>
       </c>
       <c r="I9" s="7">
-        <v>487650</v>
+        <v>501455</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6051,7 +6732,7 @@
         <v>746</v>
       </c>
       <c r="N9" s="7">
-        <v>900130</v>
+        <v>908180</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6074,46 +6755,46 @@
         <v>428</v>
       </c>
       <c r="D10" s="7">
-        <v>435040</v>
+        <v>416628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>475</v>
       </c>
       <c r="H10" s="7">
         <v>622</v>
       </c>
       <c r="I10" s="7">
-        <v>433749</v>
+        <v>401150</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>488</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
         <v>1050</v>
       </c>
       <c r="N10" s="7">
-        <v>868790</v>
+        <v>817778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,46 +6806,46 @@
         <v>107</v>
       </c>
       <c r="D11" s="7">
-        <v>109199</v>
+        <v>106694</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>304</v>
+        <v>484</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>436</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
       </c>
       <c r="I11" s="7">
-        <v>126822</v>
+        <v>119740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>495</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="M11" s="7">
         <v>301</v>
       </c>
       <c r="N11" s="7">
-        <v>236020</v>
+        <v>226434</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6857,7 @@
         <v>535</v>
       </c>
       <c r="D12" s="7">
-        <v>544239</v>
+        <v>523322</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6191,7 +6872,7 @@
         <v>816</v>
       </c>
       <c r="I12" s="7">
-        <v>560571</v>
+        <v>520890</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6206,7 +6887,7 @@
         <v>1351</v>
       </c>
       <c r="N12" s="7">
-        <v>1104810</v>
+        <v>1044212</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6229,46 +6910,46 @@
         <v>472</v>
       </c>
       <c r="D13" s="7">
-        <v>528079</v>
+        <v>694979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="H13" s="7">
         <v>792</v>
       </c>
       <c r="I13" s="7">
-        <v>530632</v>
+        <v>509880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="M13" s="7">
         <v>1264</v>
       </c>
       <c r="N13" s="7">
-        <v>1058712</v>
+        <v>1204858</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,46 +6961,46 @@
         <v>181</v>
       </c>
       <c r="D14" s="7">
-        <v>180754</v>
+        <v>178328</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="H14" s="7">
         <v>329</v>
       </c>
       <c r="I14" s="7">
-        <v>201892</v>
+        <v>189220</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="M14" s="7">
         <v>510</v>
       </c>
       <c r="N14" s="7">
-        <v>382645</v>
+        <v>367548</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +7012,7 @@
         <v>653</v>
       </c>
       <c r="D15" s="7">
-        <v>708833</v>
+        <v>873307</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6346,7 +7027,7 @@
         <v>1121</v>
       </c>
       <c r="I15" s="7">
-        <v>732524</v>
+        <v>699100</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6361,7 +7042,7 @@
         <v>1774</v>
       </c>
       <c r="N15" s="7">
-        <v>1441357</v>
+        <v>1572406</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6384,46 +7065,46 @@
         <v>460</v>
       </c>
       <c r="D16" s="7">
-        <v>418913</v>
+        <v>387837</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>583</v>
       </c>
       <c r="I16" s="7">
-        <v>353401</v>
+        <v>321948</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="M16" s="7">
         <v>1043</v>
       </c>
       <c r="N16" s="7">
-        <v>772315</v>
+        <v>709785</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,46 +7116,46 @@
         <v>189</v>
       </c>
       <c r="D17" s="7">
-        <v>165023</v>
+        <v>158129</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="H17" s="7">
         <v>389</v>
       </c>
       <c r="I17" s="7">
-        <v>221580</v>
+        <v>205557</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>578</v>
       </c>
       <c r="N17" s="7">
-        <v>386602</v>
+        <v>363686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +7167,7 @@
         <v>649</v>
       </c>
       <c r="D18" s="7">
-        <v>583936</v>
+        <v>545966</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6501,7 +7182,7 @@
         <v>972</v>
       </c>
       <c r="I18" s="7">
-        <v>574981</v>
+        <v>527505</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6516,7 +7197,7 @@
         <v>1621</v>
       </c>
       <c r="N18" s="7">
-        <v>1158917</v>
+        <v>1073471</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6536,49 +7217,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>634</v>
+        <v>366</v>
       </c>
       <c r="D19" s="7">
-        <v>433609</v>
+        <v>236808</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>534</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="H19" s="7">
-        <v>893</v>
+        <v>469</v>
       </c>
       <c r="I19" s="7">
-        <v>490895</v>
+        <v>234498</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="M19" s="7">
-        <v>1527</v>
+        <v>835</v>
       </c>
       <c r="N19" s="7">
-        <v>924504</v>
+        <v>471305</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,49 +7268,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>374</v>
+        <v>197</v>
       </c>
       <c r="D20" s="7">
-        <v>248687</v>
+        <v>126155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>544</v>
       </c>
       <c r="H20" s="7">
-        <v>751</v>
+        <v>340</v>
       </c>
       <c r="I20" s="7">
-        <v>502520</v>
+        <v>364379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="M20" s="7">
-        <v>1125</v>
+        <v>537</v>
       </c>
       <c r="N20" s="7">
-        <v>751207</v>
+        <v>490535</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,10 +7319,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1008</v>
+        <v>563</v>
       </c>
       <c r="D21" s="7">
-        <v>682296</v>
+        <v>362963</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6653,10 +7334,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1644</v>
+        <v>809</v>
       </c>
       <c r="I21" s="7">
-        <v>993415</v>
+        <v>598877</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6668,10 +7349,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2652</v>
+        <v>1372</v>
       </c>
       <c r="N21" s="7">
-        <v>1675711</v>
+        <v>961840</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6685,55 +7366,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2399</v>
+        <v>268</v>
       </c>
       <c r="D22" s="7">
-        <v>2490567</v>
+        <v>165169</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="H22" s="7">
-        <v>3425</v>
+        <v>424</v>
       </c>
       <c r="I22" s="7">
-        <v>2496598</v>
+        <v>208114</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
-        <v>5824</v>
+        <v>692</v>
       </c>
       <c r="N22" s="7">
-        <v>4987166</v>
+        <v>373283</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,49 +7423,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>906</v>
+        <v>177</v>
       </c>
       <c r="D23" s="7">
-        <v>793557</v>
+        <v>108240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="H23" s="7">
-        <v>1783</v>
+        <v>411</v>
       </c>
       <c r="I23" s="7">
-        <v>1199472</v>
+        <v>196451</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="M23" s="7">
-        <v>2689</v>
+        <v>588</v>
       </c>
       <c r="N23" s="7">
-        <v>1993029</v>
+        <v>304691</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,63 +7474,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>445</v>
+      </c>
+      <c r="D24" s="7">
+        <v>273409</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>835</v>
+      </c>
+      <c r="I24" s="7">
+        <v>404565</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1280</v>
+      </c>
+      <c r="N24" s="7">
+        <v>677974</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2399</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2582177</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3425</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2347455</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5824</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4929632</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>906</v>
+      </c>
+      <c r="D26" s="7">
+        <v>774702</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1783</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1210995</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2689</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1985697</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3305</v>
       </c>
-      <c r="D24" s="7">
-        <v>3284124</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3356879</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5208</v>
       </c>
-      <c r="I24" s="7">
-        <v>3696070</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3558450</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8513</v>
       </c>
-      <c r="N24" s="7">
-        <v>6980195</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6915329</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
